--- a/OrbisGame/Container/Data/Pflanzenfile.xlsx
+++ b/OrbisGame/Container/Data/Pflanzenfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Dropbox\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57523DC1-DC17-4850-BEF6-A4B79A686560}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDF91A4-5B6D-4954-A616-99B33219109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pflanzen" sheetId="4" r:id="rId1"/>
@@ -1874,6 +1874,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1881,12 +1887,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2252,10 +2252,10 @@
   <dimension ref="A1:AG202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD15" sqref="AD15"/>
+      <selection pane="bottomRight" activeCell="AI139" sqref="AI139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22041,13 +22041,13 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="19">
         <v>3000</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -22066,9 +22066,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="5" t="s">
         <v>264</v>
       </c>
@@ -22085,9 +22085,9 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="7" t="s">
         <v>265</v>
       </c>
@@ -22104,13 +22104,13 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="17">
         <v>4200</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -22129,9 +22129,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="9" t="s">
         <v>268</v>
       </c>
@@ -22148,13 +22148,13 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="17">
         <v>1200</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -22173,9 +22173,9 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="9"/>
       <c r="E80" t="str">
         <f t="shared" si="3"/>
@@ -22190,13 +22190,13 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="17">
         <v>600</v>
       </c>
       <c r="D81" s="8" t="s">
@@ -22215,9 +22215,9 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="9"/>
       <c r="E82" t="str">
         <f t="shared" si="3"/>
@@ -22232,13 +22232,13 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="17">
         <v>1400</v>
       </c>
       <c r="D83" s="8" t="s">
@@ -22257,9 +22257,9 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="9"/>
       <c r="E84" t="str">
         <f t="shared" si="3"/>
@@ -22274,13 +22274,13 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="17">
         <v>3400</v>
       </c>
       <c r="D85" s="8" t="s">
@@ -22299,9 +22299,9 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="9"/>
       <c r="E86" t="str">
         <f t="shared" si="3"/>
@@ -22316,13 +22316,13 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="17">
         <v>7000</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -22341,9 +22341,9 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="9"/>
       <c r="E88" t="str">
         <f t="shared" si="3"/>
@@ -22358,13 +22358,13 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="17">
         <v>14000</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -22383,9 +22383,9 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="9"/>
       <c r="E90" t="str">
         <f t="shared" si="3"/>
@@ -22400,13 +22400,13 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="17">
         <v>50000</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -22425,9 +22425,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="9"/>
       <c r="E92" t="str">
         <f t="shared" si="3"/>
@@ -22442,13 +22442,13 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="17">
         <v>7000</v>
       </c>
       <c r="D93" s="8" t="s">
@@ -22467,9 +22467,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="9" t="s">
         <v>449</v>
       </c>
@@ -22486,13 +22486,13 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="17">
         <v>15000</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -22511,9 +22511,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
       <c r="D96" s="9" t="s">
         <v>450</v>
       </c>
@@ -22530,13 +22530,13 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="17">
         <v>6000</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -22555,9 +22555,9 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
       <c r="D98" s="9"/>
       <c r="E98" t="str">
         <f t="shared" si="3"/>
@@ -22572,13 +22572,13 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="17">
         <v>8000</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -22597,9 +22597,9 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="9"/>
       <c r="E100" t="str">
         <f t="shared" si="3"/>
@@ -22614,13 +22614,13 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="17">
         <v>10000</v>
       </c>
       <c r="D101" s="8" t="s">
@@ -22639,9 +22639,9 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="9"/>
       <c r="E102" t="str">
         <f t="shared" si="3"/>
@@ -22656,27 +22656,27 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
       <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
       <c r="D104" s="9"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
       <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
       <c r="D106" s="9"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -22687,54 +22687,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
